--- a/Project ideas.xlsx
+++ b/Project ideas.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hk_la\Documents\Project-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D675030-8780-4CC0-98D7-42546DF60A3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{728C97B7-6967-4AE1-983A-E4D12FA04530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5FAD5401-D435-4237-BED7-B0B8C8B8E898}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{5FAD5401-D435-4237-BED7-B0B8C8B8E898}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Data Source" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="Data Source" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
   <si>
     <t>which LGA has the highest crime rate</t>
   </si>
@@ -138,6 +139,42 @@
   </si>
   <si>
     <t>New filename</t>
+  </si>
+  <si>
+    <t>Top 10 offences</t>
+  </si>
+  <si>
+    <t>LGA</t>
+  </si>
+  <si>
+    <t>Suburb</t>
+  </si>
+  <si>
+    <t>Youth Offenders</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Most common offences</t>
+  </si>
+  <si>
+    <t>Yearly Comparison</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Generational differences?</t>
+  </si>
+  <si>
+    <t>Nick</t>
+  </si>
+  <si>
+    <t>Vishaan</t>
+  </si>
+  <si>
+    <t>Hiu</t>
   </si>
 </sst>
 </file>
@@ -169,12 +206,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="7">
@@ -252,7 +307,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -260,6 +315,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -272,9 +329,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -594,7 +661,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A20E8C6A-E22F-41B9-A63B-48C7ACEE9E7E}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -641,10 +708,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -656,8 +723,8 @@
         <v>9</v>
       </c>
       <c r="B5" s="5"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="12"/>
       <c r="E5" s="6" t="s">
         <v>10</v>
       </c>
@@ -701,6 +768,146 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32063767-8949-412A-97F5-C0A3BDF5C842}">
+  <dimension ref="A2:E17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A5:E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="17"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="17"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="14"/>
+      <c r="B6" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="18"/>
+      <c r="B10" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="19"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="18"/>
+      <c r="B11" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="19"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="18"/>
+      <c r="B12" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="19"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="E5:E8"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="E9:E12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCE2F5D-ACE0-4BB9-A614-FC1CF9824611}">
   <dimension ref="A2:C7"/>
   <sheetViews>
@@ -720,12 +927,12 @@
         <v>20</v>
       </c>
       <c r="B2" s="13"/>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B3" t="s">
@@ -736,7 +943,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B4" t="s">
@@ -747,7 +954,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B5" t="s">
@@ -758,7 +965,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C6" t="s">
@@ -766,7 +973,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="7" t="s">
         <v>32</v>
       </c>
       <c r="C7" t="s">
